--- a/data/trans_orig/P22_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P22_R3-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>16519</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9254</v>
+        <v>10286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24876</v>
+        <v>25128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03349766569158601</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01876610334582229</v>
+        <v>0.02085782431011483</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05044340126242282</v>
+        <v>0.05095599738944612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>25600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17588</v>
+        <v>16151</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37190</v>
+        <v>37384</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05476153098525942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03762275105469653</v>
+        <v>0.03454878472037132</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07955310434045464</v>
+        <v>0.07996819081689445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -786,19 +786,19 @@
         <v>42119</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30135</v>
+        <v>30544</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55944</v>
+        <v>57089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04384574064153675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03137052273000877</v>
+        <v>0.03179596541105169</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05823651308964017</v>
+        <v>0.05942910477509798</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>476618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>468261</v>
+        <v>468009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>483883</v>
+        <v>482851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.966502334308414</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9495565987375771</v>
+        <v>0.9490440026105539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9812338966541777</v>
+        <v>0.9791421756898852</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>464</v>
@@ -836,19 +836,19 @@
         <v>441889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>430299</v>
+        <v>430105</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>449901</v>
+        <v>451338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9452384690147406</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9204468956595454</v>
+        <v>0.9200318091831056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9623772489453034</v>
+        <v>0.9654512152796287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>945</v>
@@ -857,19 +857,19 @@
         <v>918507</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>904682</v>
+        <v>903537</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>930491</v>
+        <v>930082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9561542593584632</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9417634869103598</v>
+        <v>0.9405708952249022</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9686294772699913</v>
+        <v>0.9682040345889484</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>26093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16999</v>
+        <v>16716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38192</v>
+        <v>37983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0355989806110386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02319200735258577</v>
+        <v>0.02280569294551894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05210550714936145</v>
+        <v>0.0518198999191826</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -982,19 +982,19 @@
         <v>29546</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20135</v>
+        <v>20427</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42150</v>
+        <v>41253</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04723547295585317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03219082482865697</v>
+        <v>0.03265760379721157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06738599722369029</v>
+        <v>0.06595234227244008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1003,19 +1003,19 @@
         <v>55639</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41978</v>
+        <v>44116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73017</v>
+        <v>73176</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04095686229871812</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03090046915299097</v>
+        <v>0.03247496877932859</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05374936775301437</v>
+        <v>0.05386645930127259</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>706889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>694790</v>
+        <v>694999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>715983</v>
+        <v>716266</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9644010193889614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9478944928506384</v>
+        <v>0.9481801000808175</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9768079926474141</v>
+        <v>0.9771943070544812</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>564</v>
@@ -1053,19 +1053,19 @@
         <v>595948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>583344</v>
+        <v>584241</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>605359</v>
+        <v>605067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9527645270441468</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9326140027763096</v>
+        <v>0.9340476577275599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.967809175171343</v>
+        <v>0.9673423962027885</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1240</v>
@@ -1074,19 +1074,19 @@
         <v>1302837</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1285459</v>
+        <v>1285300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1316498</v>
+        <v>1314360</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9590431377012819</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9462506322469851</v>
+        <v>0.9461335406987275</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690995308470091</v>
+        <v>0.9675250312206715</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23477</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15648</v>
+        <v>14513</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35015</v>
+        <v>35118</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03675980969899077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02450167450102359</v>
+        <v>0.02272347490394123</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05482563135602929</v>
+        <v>0.05498625303207746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1199,19 +1199,19 @@
         <v>27057</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17089</v>
+        <v>17897</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38659</v>
+        <v>39449</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03922727843193274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02477530003469652</v>
+        <v>0.02594706120094828</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05604883566773832</v>
+        <v>0.05719409565500114</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -1220,19 +1220,19 @@
         <v>50534</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37244</v>
+        <v>37171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65198</v>
+        <v>67524</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03804098044234068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02803664225224847</v>
+        <v>0.02798157139766218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04908001771307417</v>
+        <v>0.05083047995704661</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>615191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603653</v>
+        <v>603550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623020</v>
+        <v>624155</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9632401903010093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9451743686439708</v>
+        <v>0.9450137469679226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9754983254989764</v>
+        <v>0.9772765250960588</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>633</v>
@@ -1270,19 +1270,19 @@
         <v>662687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>651085</v>
+        <v>650295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>672655</v>
+        <v>671847</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9607727215680673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9439511643322616</v>
+        <v>0.9428059043449988</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9752246999653034</v>
+        <v>0.9740529387990514</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1224</v>
@@ -1291,19 +1291,19 @@
         <v>1277878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1263214</v>
+        <v>1260888</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1291168</v>
+        <v>1291241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9619590195576593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.950919982286926</v>
+        <v>0.9491695200429534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9719633577477516</v>
+        <v>0.9720184286023376</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>35391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24984</v>
+        <v>25064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48987</v>
+        <v>49492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0683204104314612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0482312767934837</v>
+        <v>0.04838470481734911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0945673191112071</v>
+        <v>0.09554204516014754</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1416,19 +1416,19 @@
         <v>22045</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14339</v>
+        <v>14111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33564</v>
+        <v>32614</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04284982840778141</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02787111604602066</v>
+        <v>0.02742790534889311</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06524111914611909</v>
+        <v>0.06339379451469135</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1437,19 +1437,19 @@
         <v>57435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44176</v>
+        <v>43103</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72235</v>
+        <v>74311</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05562892079418497</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04278670002902714</v>
+        <v>0.04174685472825412</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06996300202369328</v>
+        <v>0.07197403037610889</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>482622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>469026</v>
+        <v>468521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>493029</v>
+        <v>492949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9316795895685388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9054326808887935</v>
+        <v>0.9044579548398523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9517687232065163</v>
+        <v>0.9516152951826509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>480</v>
@@ -1487,19 +1487,19 @@
         <v>492417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>480898</v>
+        <v>481848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>500123</v>
+        <v>500351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9571501715922186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9347588808538808</v>
+        <v>0.9366062054853087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9721288839539791</v>
+        <v>0.9725720946511069</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>929</v>
@@ -1508,19 +1508,19 @@
         <v>975039</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>960239</v>
+        <v>958163</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>988298</v>
+        <v>989371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.944371079205815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9300369979763068</v>
+        <v>0.9280259696238915</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.957213299970973</v>
+        <v>0.9582531452717459</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7189</v>
+        <v>6668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20044</v>
+        <v>20250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03119277970720469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01858973191855846</v>
+        <v>0.01724324313668258</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05183136590583291</v>
+        <v>0.05236448216568169</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>24078</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15629</v>
+        <v>15535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35259</v>
+        <v>35707</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05972518843312468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03876778635898511</v>
+        <v>0.0385343502137284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0874618603171943</v>
+        <v>0.08857249045810267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -1654,19 +1654,19 @@
         <v>36140</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25953</v>
+        <v>26596</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49465</v>
+        <v>49424</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04575571616059771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03285792961025797</v>
+        <v>0.03367276729399923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06262610383800643</v>
+        <v>0.06257365822610642</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>374647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>366666</v>
+        <v>366460</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>379521</v>
+        <v>380042</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9688072202927953</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.948168634094167</v>
+        <v>0.9476355178343184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9814102680814415</v>
+        <v>0.9827567568633174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>372</v>
@@ -1704,19 +1704,19 @@
         <v>379061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>367880</v>
+        <v>367432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>387510</v>
+        <v>387604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9402748115668753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9125381396828057</v>
+        <v>0.9114275095418973</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9612322136410149</v>
+        <v>0.9614656497862716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>751</v>
@@ -1725,19 +1725,19 @@
         <v>753709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>740384</v>
+        <v>740425</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>763896</v>
+        <v>763253</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9542442838394023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9373738961619934</v>
+        <v>0.9374263417738935</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.967142070389742</v>
+        <v>0.9663272327060004</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>11087</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5600</v>
+        <v>6379</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18521</v>
+        <v>18346</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03789358386476924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01914122240161899</v>
+        <v>0.02180088297923599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06330243272491611</v>
+        <v>0.06270523806781665</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1850,19 +1850,19 @@
         <v>13198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7803</v>
+        <v>7336</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22158</v>
+        <v>21000</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03848620660618952</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02275260442752973</v>
+        <v>0.02139273613981951</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06461255353805333</v>
+        <v>0.06123701084705484</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1871,19 +1871,19 @@
         <v>24285</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16464</v>
+        <v>16535</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34292</v>
+        <v>35039</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03821337151304274</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02590718380400201</v>
+        <v>0.02601784061359812</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05395937848244087</v>
+        <v>0.05513490499824932</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>281496</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274062</v>
+        <v>274237</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286983</v>
+        <v>286204</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9621064161352307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9366975672750836</v>
+        <v>0.9372947619321833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.980858777598381</v>
+        <v>0.978199117020764</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>357</v>
@@ -1921,19 +1921,19 @@
         <v>329736</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320776</v>
+        <v>321934</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>335131</v>
+        <v>335598</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9615137933938105</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9353874464619466</v>
+        <v>0.938762989152945</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.97724739557247</v>
+        <v>0.9786072638601804</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>648</v>
@@ -1942,19 +1942,19 @@
         <v>611232</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>601225</v>
+        <v>600478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>619053</v>
+        <v>618982</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9617866284869573</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9460406215175592</v>
+        <v>0.9448650950017506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.974092816195998</v>
+        <v>0.9739821593864016</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>6138</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2529</v>
+        <v>2548</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13214</v>
+        <v>13168</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02950148032949725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01215732357170709</v>
+        <v>0.01224715026921469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06351809791779887</v>
+        <v>0.06329441186254477</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2067,19 +2067,19 @@
         <v>4587</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11435</v>
+        <v>11402</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01373744985811047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003556142210774283</v>
+        <v>0.003507085330361598</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03424597942668384</v>
+        <v>0.03414808167605123</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2088,19 +2088,19 @@
         <v>10725</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5457</v>
+        <v>5237</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19290</v>
+        <v>20970</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01978890620374224</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0100689576775473</v>
+        <v>0.009663701355771435</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03559361975846478</v>
+        <v>0.03869321288839441</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>201905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>194829</v>
+        <v>194875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>205514</v>
+        <v>205495</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9704985196705027</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9364819020822003</v>
+        <v>0.9367055881374552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9878426764282928</v>
+        <v>0.9877528497307853</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>286</v>
@@ -2138,19 +2138,19 @@
         <v>329321</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322473</v>
+        <v>322506</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>332721</v>
+        <v>332737</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9862625501418896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9657540205733162</v>
+        <v>0.9658519183239495</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9964438577892257</v>
+        <v>0.9964929146696384</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>498</v>
@@ -2159,19 +2159,19 @@
         <v>531226</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>522661</v>
+        <v>520981</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>536494</v>
+        <v>536714</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9802110937962578</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9644063802415352</v>
+        <v>0.9613067871116057</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9899310423224527</v>
+        <v>0.9903362986442286</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>130768</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -2284,19 +2284,19 @@
         <v>146110</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>268</v>
@@ -2305,19 +2305,19 @@
         <v>276878</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3139367</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3115071</v>
+        <v>3115832</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3160289</v>
+        <v>3160239</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9600115479054573</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9525818136342807</v>
+        <v>0.9528143425352</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9664094300175423</v>
+        <v>0.9663941183498533</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3156</v>
@@ -2355,19 +2355,19 @@
         <v>3231060</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3206744</v>
+        <v>3206683</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3252409</v>
+        <v>3253542</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9567359279740694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.949535997383829</v>
+        <v>0.9495176519314039</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9630576732530999</v>
+        <v>0.9633931459512605</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6235</v>
@@ -2376,19 +2376,19 @@
         <v>6370426</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6336335</v>
+        <v>6336717</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6403063</v>
+        <v>6404154</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9583473659576425</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.953218780850039</v>
+        <v>0.9532762206738664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9632571541635275</v>
+        <v>0.9634213292528727</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>16544</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9671</v>
+        <v>9606</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26301</v>
+        <v>26480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03650801020532527</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02134032293781637</v>
+        <v>0.02119670351270088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05803887023359373</v>
+        <v>0.05843333602573701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2744,19 +2744,19 @@
         <v>10759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5258</v>
+        <v>5769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17462</v>
+        <v>19361</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02500756754780505</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01222079643101433</v>
+        <v>0.01340848905619013</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04058741105780599</v>
+        <v>0.04500041894938782</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2765,19 +2765,19 @@
         <v>27303</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18118</v>
+        <v>17775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39675</v>
+        <v>39345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03090707837601978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02050980549775405</v>
+        <v>0.02012069885047926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04491225422195429</v>
+        <v>0.04453814986995308</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>436621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426864</v>
+        <v>426685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>443494</v>
+        <v>443559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9634919897946748</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9419611297664063</v>
+        <v>0.9415666639742629</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9786596770621837</v>
+        <v>0.9788032964872991</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>410</v>
@@ -2815,19 +2815,19 @@
         <v>419471</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>412768</v>
+        <v>410869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>424972</v>
+        <v>424461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9749924324521949</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9594125889421939</v>
+        <v>0.9549995810506121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9877792035689845</v>
+        <v>0.9865915109438098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>840</v>
@@ -2836,19 +2836,19 @@
         <v>856092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>843720</v>
+        <v>844050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>865277</v>
+        <v>865620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9690929216239802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9550877457780456</v>
+        <v>0.9554618501300469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9794901945022458</v>
+        <v>0.9798793011495208</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>27951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18309</v>
+        <v>18218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40803</v>
+        <v>42561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04068112223888703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0266477728572053</v>
+        <v>0.02651459466957696</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05938541799800058</v>
+        <v>0.06194438326453464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -2961,19 +2961,19 @@
         <v>20994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13466</v>
+        <v>13516</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33452</v>
+        <v>33139</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03440195759409164</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02206691857753863</v>
+        <v>0.02214769110954336</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05481664460115259</v>
+        <v>0.05430352367045174</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -2982,19 +2982,19 @@
         <v>48945</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36535</v>
+        <v>35945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65545</v>
+        <v>65225</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03772747326907226</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02816131282667916</v>
+        <v>0.02770681180761866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05052238642478901</v>
+        <v>0.0502761239508567</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>659136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>646284</v>
+        <v>644526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>668778</v>
+        <v>668869</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.959318877761113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9406145820019995</v>
+        <v>0.9380556167354651</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9733522271427949</v>
+        <v>0.973485405330423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>552</v>
@@ -3032,19 +3032,19 @@
         <v>589261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>576803</v>
+        <v>577116</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>596789</v>
+        <v>596739</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9655980424059084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9451833553988473</v>
+        <v>0.9456964763295482</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9779330814224614</v>
+        <v>0.9778523088904566</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1193</v>
@@ -3053,19 +3053,19 @@
         <v>1248397</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1231797</v>
+        <v>1232117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1260807</v>
+        <v>1261397</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9622725267309278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.949477613575211</v>
+        <v>0.9497238760491433</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9718386871733209</v>
+        <v>0.9722931881923814</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>36974</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26321</v>
+        <v>25951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52969</v>
+        <v>52242</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05422426440611817</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03860093924971062</v>
+        <v>0.03805887458700646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07768304392718371</v>
+        <v>0.07661653778732011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3178,19 +3178,19 @@
         <v>24913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15746</v>
+        <v>15767</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38424</v>
+        <v>37927</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03504654361077995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02215122258583649</v>
+        <v>0.02218075972555118</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05405407039235002</v>
+        <v>0.05335384168881597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3199,19 +3199,19 @@
         <v>61886</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45403</v>
+        <v>46881</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80451</v>
+        <v>81588</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04443582778532033</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03260052087289208</v>
+        <v>0.03366149245980843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05776576448111726</v>
+        <v>0.05858212771967582</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>644889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628894</v>
+        <v>629621</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655542</v>
+        <v>655912</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9457757355938818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9223169560728162</v>
+        <v>0.9233834622126799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9613990607502894</v>
+        <v>0.9619411254129935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>646</v>
@@ -3249,19 +3249,19 @@
         <v>685937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>672426</v>
+        <v>672923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>695104</v>
+        <v>695083</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.96495345638922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.94594592960765</v>
+        <v>0.9466461583111841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9778487774141637</v>
+        <v>0.9778192402744489</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1265</v>
@@ -3270,19 +3270,19 @@
         <v>1330826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312261</v>
+        <v>1311124</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1347309</v>
+        <v>1345831</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9555641722146797</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9422342355188827</v>
+        <v>0.9414178722803241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.967399479127108</v>
+        <v>0.9663385075401915</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>31694</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19709</v>
+        <v>19979</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47382</v>
+        <v>48938</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05156737079812419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03206665001252016</v>
+        <v>0.03250669592525933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07709253494964133</v>
+        <v>0.07962299838809353</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -3395,19 +3395,19 @@
         <v>34876</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23101</v>
+        <v>23121</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50136</v>
+        <v>50581</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05659939954305138</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03749009208550624</v>
+        <v>0.03752248825564725</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08136410180967218</v>
+        <v>0.08208474619789448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -3416,19 +3416,19 @@
         <v>66571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49294</v>
+        <v>50053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88084</v>
+        <v>86470</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05408661993062775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04004970118849856</v>
+        <v>0.04066645873140675</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07156546380955599</v>
+        <v>0.07025455703887724</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>582923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>567235</v>
+        <v>565679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>594908</v>
+        <v>594638</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9484326292018758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.922907465050358</v>
+        <v>0.9203770016119067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9679333499874796</v>
+        <v>0.9674933040747411</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>511</v>
@@ -3466,19 +3466,19 @@
         <v>581323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>566063</v>
+        <v>565618</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>593098</v>
+        <v>593078</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9434006004569486</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9186358981903278</v>
+        <v>0.9179152538021057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9625099079144938</v>
+        <v>0.9624775117443528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1036</v>
@@ -3487,19 +3487,19 @@
         <v>1164245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1142732</v>
+        <v>1144346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1181522</v>
+        <v>1180763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9459133800693722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9284345361904439</v>
+        <v>0.9297454429611226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9599502988115012</v>
+        <v>0.9593335412685926</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>23359</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13446</v>
+        <v>14754</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33854</v>
+        <v>36756</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05439493618214449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03131048118789592</v>
+        <v>0.03435650696079685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07883572236048855</v>
+        <v>0.08559386543758161</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3612,19 +3612,19 @@
         <v>14072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7273</v>
+        <v>7254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24549</v>
+        <v>25052</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03142549395721027</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01624123296962595</v>
+        <v>0.01619893090114452</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05482241376578875</v>
+        <v>0.05594509851968708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -3633,19 +3633,19 @@
         <v>37431</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25707</v>
+        <v>25443</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53678</v>
+        <v>54565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04266970325795618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02930469236998767</v>
+        <v>0.02900371801792509</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.061189860043297</v>
+        <v>0.06220128509153657</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>406070</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>395575</v>
+        <v>392673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>415983</v>
+        <v>414675</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9456050638178555</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9211642776395115</v>
+        <v>0.9144061345624185</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9686895188121042</v>
+        <v>0.9656434930392032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -3683,19 +3683,19 @@
         <v>433728</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>423251</v>
+        <v>422748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>440527</v>
+        <v>440546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9685745060427897</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9451775862342113</v>
+        <v>0.9440549014803128</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9837587670303741</v>
+        <v>0.9838010690988555</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>768</v>
@@ -3704,19 +3704,19 @@
         <v>839798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>823551</v>
+        <v>822664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>851522</v>
+        <v>851786</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9573302967420438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9388101399567029</v>
+        <v>0.9377987149084622</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9706953076300122</v>
+        <v>0.9709962819820748</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>17342</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10233</v>
+        <v>9820</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29258</v>
+        <v>29984</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05598058521533346</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03303331628716993</v>
+        <v>0.0316998448335602</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09444440083299925</v>
+        <v>0.09679010221454577</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -3829,19 +3829,19 @@
         <v>6499</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2732</v>
+        <v>2778</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13346</v>
+        <v>13753</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01835949678012875</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007716409749664518</v>
+        <v>0.007848245857647668</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0377022976915795</v>
+        <v>0.03885124608420148</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -3850,19 +3850,19 @@
         <v>23841</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15127</v>
+        <v>15020</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37604</v>
+        <v>36666</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03591720421964423</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02278974799699844</v>
+        <v>0.02262797519539826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05665087737925374</v>
+        <v>0.05523789487192176</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>292444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280528</v>
+        <v>279802</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>299553</v>
+        <v>299966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9440194147846666</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.905555599167001</v>
+        <v>0.9032098977854545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9669666837128301</v>
+        <v>0.9683001551664399</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -3900,19 +3900,19 @@
         <v>347497</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>340650</v>
+        <v>340243</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>351264</v>
+        <v>351218</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9816405032198713</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9622977023084205</v>
+        <v>0.9611487539157985</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9922835902503354</v>
+        <v>0.9921517541423523</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>606</v>
@@ -3921,19 +3921,19 @@
         <v>639941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>626178</v>
+        <v>627116</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>648655</v>
+        <v>648762</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9640827957803557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9433491226207463</v>
+        <v>0.9447621051280782</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9772102520030016</v>
+        <v>0.9773720248046018</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>5126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1962</v>
+        <v>2002</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11433</v>
+        <v>11066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02051506825048666</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007853794136957836</v>
+        <v>0.008014525428644075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04576019956131192</v>
+        <v>0.04429126170437918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -4046,19 +4046,19 @@
         <v>10385</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4469</v>
+        <v>5183</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20168</v>
+        <v>20432</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02669737134012714</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01148903651433894</v>
+        <v>0.01332530699728762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05184843309631739</v>
+        <v>0.05252732509002342</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4067,19 +4067,19 @@
         <v>15510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9185</v>
+        <v>8321</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26017</v>
+        <v>26156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02427942906554657</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0143771565666313</v>
+        <v>0.01302492129738007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04072591252941827</v>
+        <v>0.04094402084455167</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>244725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238418</v>
+        <v>238785</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247889</v>
+        <v>247849</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9794849317495133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9542398004386882</v>
+        <v>0.955708738295621</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9921462058630421</v>
+        <v>0.991985474571356</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>342</v>
@@ -4117,19 +4117,19 @@
         <v>378594</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>368811</v>
+        <v>368547</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>384510</v>
+        <v>383796</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9733026286598728</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9481515669036825</v>
+        <v>0.9474726749099764</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.988510963485661</v>
+        <v>0.9866746930027124</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>559</v>
@@ -4138,19 +4138,19 @@
         <v>623320</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>612813</v>
+        <v>612674</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>629645</v>
+        <v>630509</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9757205709344534</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9592740874705817</v>
+        <v>0.9590559791554483</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9856228434333687</v>
+        <v>0.9869750787026197</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>158990</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04640956665480246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>104</v>
@@ -4263,19 +4263,19 @@
         <v>122499</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03442605532523693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>239</v>
@@ -4284,19 +4284,19 @@
         <v>281488</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04030412762211991</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3266808</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3236864</v>
+        <v>3237373</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3293229</v>
+        <v>3291773</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9535904333451976</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.944849706239413</v>
+        <v>0.9449982320364894</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9613028679299525</v>
+        <v>0.9608776663856868</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3194</v>
@@ -4334,19 +4334,19 @@
         <v>3435810</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3410523</v>
+        <v>3409923</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3457138</v>
+        <v>3459242</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9655739446747631</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9584674398774959</v>
+        <v>0.9582987487986343</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9715677382574393</v>
+        <v>0.9721590567637763</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6267</v>
@@ -4355,19 +4355,19 @@
         <v>6702619</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6664722</v>
+        <v>6665935</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6737162</v>
+        <v>6735417</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9596958723778801</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.954269759489092</v>
+        <v>0.9544433875720977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9646418138634448</v>
+        <v>0.9643920009058445</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>13833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7450</v>
+        <v>7471</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22582</v>
+        <v>24334</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03312462369680318</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01783988367497451</v>
+        <v>0.01789080412893613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05407288101040511</v>
+        <v>0.05826772265354938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4723,19 +4723,19 @@
         <v>11635</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5927</v>
+        <v>5879</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19442</v>
+        <v>19293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02939939018674436</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01497663211399262</v>
+        <v>0.0148551604520454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04912712621073359</v>
+        <v>0.04875102559495709</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4744,19 +4744,19 @@
         <v>25468</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17084</v>
+        <v>17005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37420</v>
+        <v>36253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03131206942500805</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02100379714225406</v>
+        <v>0.02090708870616975</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04600583915383762</v>
+        <v>0.04457086328305243</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>403783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>395034</v>
+        <v>393282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>410166</v>
+        <v>410145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9668753763031969</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9459271189895946</v>
+        <v>0.941732277346449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9821601163250254</v>
+        <v>0.9821091958710638</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>392</v>
@@ -4794,19 +4794,19 @@
         <v>384120</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>376313</v>
+        <v>376462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389828</v>
+        <v>389876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9706006098132557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9508728737892663</v>
+        <v>0.9512489744050429</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9850233678860074</v>
+        <v>0.9851448395479546</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>771</v>
@@ -4815,19 +4815,19 @@
         <v>787903</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>775951</v>
+        <v>777118</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>796287</v>
+        <v>796366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9686879305749919</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9539941608461624</v>
+        <v>0.9554291367169476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.978996202857746</v>
+        <v>0.9790929112938302</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>19997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12253</v>
+        <v>12411</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29748</v>
+        <v>30355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03386524493371999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02074996345884209</v>
+        <v>0.02101851092636665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05037835326511413</v>
+        <v>0.0514051277819083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4940,19 +4940,19 @@
         <v>20062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12854</v>
+        <v>12504</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29855</v>
+        <v>31188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03571693905645394</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02288503832612491</v>
+        <v>0.02226132419188323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05315297455755093</v>
+        <v>0.05552572355262595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -4961,19 +4961,19 @@
         <v>40059</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28915</v>
+        <v>29061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54390</v>
+        <v>52230</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03476794192385289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02509602311169428</v>
+        <v>0.02522224925036204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04720628398040898</v>
+        <v>0.04533121967914887</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>570499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>560748</v>
+        <v>560141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>578243</v>
+        <v>578085</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.96613475506628</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9496216467348857</v>
+        <v>0.948594872218092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9792500365411577</v>
+        <v>0.9789814890736334</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>557</v>
@@ -5011,19 +5011,19 @@
         <v>541625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>531832</v>
+        <v>530499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>548833</v>
+        <v>549183</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9642830609435461</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9468470254424486</v>
+        <v>0.9444742764473741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9771149616738749</v>
+        <v>0.9777386758081168</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1104</v>
@@ -5032,19 +5032,19 @@
         <v>1112124</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1097793</v>
+        <v>1099953</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1123268</v>
+        <v>1123122</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9652320580761471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9527937160195911</v>
+        <v>0.9546687803208511</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9749039768883058</v>
+        <v>0.9747777507496379</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>40851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28381</v>
+        <v>28508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56264</v>
+        <v>55831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06114008648947693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0424766796220456</v>
+        <v>0.04266678633173384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08420739333458999</v>
+        <v>0.08355937325643292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5157,19 +5157,19 @@
         <v>32129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22476</v>
+        <v>22501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44550</v>
+        <v>44467</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04857865175435509</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03398256471374041</v>
+        <v>0.03402102157353609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06735796915507364</v>
+        <v>0.06723289288000406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -5178,19 +5178,19 @@
         <v>72981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58003</v>
+        <v>56593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91325</v>
+        <v>92032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05489137805338292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04362578059260398</v>
+        <v>0.04256536566899601</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06868854992335272</v>
+        <v>0.06922072692984654</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>627311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611898</v>
+        <v>612331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>639781</v>
+        <v>639654</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9388599135105231</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9157926066654101</v>
+        <v>0.9164406267435672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9575233203779544</v>
+        <v>0.9573332136682662</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>634</v>
@@ -5228,19 +5228,19 @@
         <v>629257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>616836</v>
+        <v>616919</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>638910</v>
+        <v>638885</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9514213482456449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9326420308449263</v>
+        <v>0.9327671071199958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9660174352862595</v>
+        <v>0.9659789784264639</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1236</v>
@@ -5249,19 +5249,19 @@
         <v>1256567</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1238223</v>
+        <v>1237516</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1271545</v>
+        <v>1272955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.945108621946617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9313114500766471</v>
+        <v>0.9307792730701533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.956374219407396</v>
+        <v>0.9574346343310041</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>33660</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23021</v>
+        <v>23006</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47462</v>
+        <v>49131</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05210131209799816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03563418236639422</v>
+        <v>0.03561041883261357</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07346578412541879</v>
+        <v>0.07604801907593896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5374,19 +5374,19 @@
         <v>25412</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16639</v>
+        <v>16117</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37090</v>
+        <v>36966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03920940514361795</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02567399000565049</v>
+        <v>0.02486811890596062</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05722944999084038</v>
+        <v>0.0570379411029175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -5395,19 +5395,19 @@
         <v>59072</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45403</v>
+        <v>46043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76794</v>
+        <v>77568</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04564514838097744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03508306750821177</v>
+        <v>0.0355778233180624</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05933974412156939</v>
+        <v>0.05993720945055075</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>612388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>598586</v>
+        <v>596917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>623027</v>
+        <v>623042</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9478986879020018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9265342158745812</v>
+        <v>0.9239519809240611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9643658176336058</v>
+        <v>0.9643895811673864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>577</v>
@@ -5445,19 +5445,19 @@
         <v>622686</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>611008</v>
+        <v>611132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>631459</v>
+        <v>631981</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9607905948563821</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9427705500091597</v>
+        <v>0.9429620588970825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9743260099943495</v>
+        <v>0.9751318810940394</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1130</v>
@@ -5466,19 +5466,19 @@
         <v>1235075</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1217353</v>
+        <v>1216579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1248744</v>
+        <v>1248104</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9543548516190226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9406602558784313</v>
+        <v>0.940062790549449</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9649169324917882</v>
+        <v>0.9644221766819375</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>28793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19624</v>
+        <v>18881</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40298</v>
+        <v>41473</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06051725841255805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04124468741411132</v>
+        <v>0.03968371083993489</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08469706100319942</v>
+        <v>0.08716697414223122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -5591,19 +5591,19 @@
         <v>15413</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8802</v>
+        <v>8324</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25980</v>
+        <v>26164</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03102100770849775</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01771545594375279</v>
+        <v>0.01675405218861327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05228916743323762</v>
+        <v>0.0526602196509802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -5612,19 +5612,19 @@
         <v>44206</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31522</v>
+        <v>31558</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58497</v>
+        <v>60324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04544975718996495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03240892827355925</v>
+        <v>0.03244555061645341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06014265595670142</v>
+        <v>0.06202107394716837</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>446993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>435488</v>
+        <v>434313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>456162</v>
+        <v>456905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9394827415874419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9153029389968006</v>
+        <v>0.912833025857769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9587553125858888</v>
+        <v>0.9603162891600656</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>421</v>
@@ -5662,19 +5662,19 @@
         <v>481436</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>470869</v>
+        <v>470685</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>488047</v>
+        <v>488525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9689789922915023</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9477108325667625</v>
+        <v>0.9473397803490196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9822845440562472</v>
+        <v>0.9832459478113864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>817</v>
@@ -5683,19 +5683,19 @@
         <v>928429</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>914138</v>
+        <v>912311</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>941113</v>
+        <v>941077</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9545502428100351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9398573440432985</v>
+        <v>0.9379789260528316</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9675910717264408</v>
+        <v>0.9675544493835465</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>12663</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7344</v>
+        <v>6634</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21571</v>
+        <v>22278</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03787473964420127</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02196563353473852</v>
+        <v>0.01984322168463616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06452033697525396</v>
+        <v>0.0666334123841797</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -5808,19 +5808,19 @@
         <v>13975</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7349</v>
+        <v>7094</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22867</v>
+        <v>23525</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03716174114331175</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01954217822490655</v>
+        <v>0.01886324019884285</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06080610572853003</v>
+        <v>0.06255466247091208</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -5829,19 +5829,19 @@
         <v>26638</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17756</v>
+        <v>17684</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40016</v>
+        <v>37899</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03749729699588109</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02499480756338343</v>
+        <v>0.02489320320144165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05632904581032437</v>
+        <v>0.05334936452590896</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>321667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312759</v>
+        <v>312052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>326986</v>
+        <v>327696</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9621252603557987</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9354796630247459</v>
+        <v>0.9333665876158203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9780343664652614</v>
+        <v>0.9801567783153639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>341</v>
@@ -5879,19 +5879,19 @@
         <v>362089</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>353197</v>
+        <v>352539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>368715</v>
+        <v>368970</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9628382588566883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.93919389427147</v>
+        <v>0.9374453375290879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9804578217750934</v>
+        <v>0.9811367598011571</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>654</v>
@@ -5900,19 +5900,19 @@
         <v>683756</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>670378</v>
+        <v>672495</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>692638</v>
+        <v>692710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9625027030041189</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9436709541896759</v>
+        <v>0.9466506354740911</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9750051924366167</v>
+        <v>0.9751067967985586</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>6547</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3207</v>
+        <v>2523</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13252</v>
+        <v>11894</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02547590818956493</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01247685653223086</v>
+        <v>0.009818766107398276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05156277864614871</v>
+        <v>0.04627929027676832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8679</v>
+        <v>9044</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006415855234298901</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02175822869426587</v>
+        <v>0.0226726456069286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -6046,19 +6046,19 @@
         <v>9107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4770</v>
+        <v>4803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17271</v>
+        <v>16742</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01388410637226612</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00727267033074159</v>
+        <v>0.007322310345353559</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02633173225503949</v>
+        <v>0.02552540451033428</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>250451</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>243746</v>
+        <v>245104</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253791</v>
+        <v>254475</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9745240918104351</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9484372213538514</v>
+        <v>0.9537207097232328</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9875231434677691</v>
+        <v>0.990181233892602</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>298</v>
@@ -6096,7 +6096,7 @@
         <v>396339</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>390219</v>
+        <v>389854</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>398898</v>
@@ -6105,7 +6105,7 @@
         <v>0.9935841447657011</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9782417713057332</v>
+        <v>0.9773273543930714</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -6117,19 +6117,19 @@
         <v>646789</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>638625</v>
+        <v>639154</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>651126</v>
+        <v>651093</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9861158936277339</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9736682677449607</v>
+        <v>0.9744745954896653</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9927273296692585</v>
+        <v>0.9926776896546464</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>156345</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04612722458709606</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>113</v>
@@ -6242,19 +6242,19 @@
         <v>121185</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03424518408138488</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>256</v>
@@ -6263,19 +6263,19 @@
         <v>277530</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04005817749975527</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3233092</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3205685</v>
+        <v>3205771</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3258040</v>
+        <v>3259092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9538727754129039</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.945786836233077</v>
+        <v>0.9458121562661442</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9612333513336628</v>
+        <v>0.9615438527881605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3220</v>
@@ -6313,19 +6313,19 @@
         <v>3417552</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3393676</v>
+        <v>3394158</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3437201</v>
+        <v>3439103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9657548159186151</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9590077426002296</v>
+        <v>0.9591438300754681</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9713072435491823</v>
+        <v>0.971844846649943</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6304</v>
@@ -6334,19 +6334,19 @@
         <v>6650645</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6611730</v>
+        <v>6616938</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6681615</v>
+        <v>6683035</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9599418225002447</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9543249745701957</v>
+        <v>0.9550766204182631</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9644119426437127</v>
+        <v>0.9646170129636159</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>14871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5195</v>
+        <v>5394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30540</v>
+        <v>32277</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03646608801604105</v>
+        <v>0.03646608801604106</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01273959063068727</v>
+        <v>0.01322635393978776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07488972722234442</v>
+        <v>0.07914951020067425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12334</v>
+        <v>13337</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01039588973379572</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03402330441710504</v>
+        <v>0.03679069767377055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -6723,19 +6723,19 @@
         <v>18639</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9184</v>
+        <v>8139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37806</v>
+        <v>36014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02419723528180429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01192298506050626</v>
+        <v>0.01056609937629093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04907885262145772</v>
+        <v>0.04675323985046844</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>392922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>377253</v>
+        <v>375516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402598</v>
+        <v>402399</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.963533911983959</v>
+        <v>0.9635339119839592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9251102727776558</v>
+        <v>0.9208504897993258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872604093693128</v>
+        <v>0.9867736460602122</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>205</v>
@@ -6773,16 +6773,16 @@
         <v>358743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350178</v>
+        <v>349175</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9896041102662042</v>
+        <v>0.9896041102662043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9659766955828948</v>
+        <v>0.9632093023262291</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6794,19 +6794,19 @@
         <v>751666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732499</v>
+        <v>734291</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>761121</v>
+        <v>762166</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9758027647181958</v>
+        <v>0.9758027647181957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9509211473785423</v>
+        <v>0.9532467601495316</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9880770149394938</v>
+        <v>0.9894339006237091</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>16167</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7584</v>
+        <v>7113</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28829</v>
+        <v>29044</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03390086463471752</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0159030163368112</v>
+        <v>0.01491493607985384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06045256597223218</v>
+        <v>0.06090364679415138</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -6919,19 +6919,19 @@
         <v>8695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4080</v>
+        <v>3693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17533</v>
+        <v>17994</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01736612632778112</v>
+        <v>0.01736612632778111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008149928717236387</v>
+        <v>0.007375205631509775</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03501848856947841</v>
+        <v>0.03594024073930431</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -6940,19 +6940,19 @@
         <v>24862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14003</v>
+        <v>14351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39758</v>
+        <v>41522</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0254324152260596</v>
+        <v>0.02543241522605961</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0143246591207779</v>
+        <v>0.01468007892215486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04067104440410682</v>
+        <v>0.04247513518807525</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>460723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448061</v>
+        <v>447846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469306</v>
+        <v>469777</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9660991353652825</v>
+        <v>0.9660991353652826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9395474340277677</v>
+        <v>0.9390963532058486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9840969836631885</v>
+        <v>0.9850850639201462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -6990,19 +6990,19 @@
         <v>491971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>483133</v>
+        <v>482672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496586</v>
+        <v>496973</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9826338736722189</v>
+        <v>0.9826338736722188</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9649815114305217</v>
+        <v>0.9640597592606958</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9918500712827636</v>
+        <v>0.9926247943684903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>746</v>
@@ -7011,19 +7011,19 @@
         <v>952695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>937799</v>
+        <v>936035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>963554</v>
+        <v>963206</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9745675847739403</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.959328955595893</v>
+        <v>0.957524864811924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9856753408792222</v>
+        <v>0.9853199210778449</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>20808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12658</v>
+        <v>12748</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32604</v>
+        <v>33556</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03351651412559398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02038881152585032</v>
+        <v>0.02053315755411383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05251660073639761</v>
+        <v>0.05405041342511811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -7136,19 +7136,19 @@
         <v>19718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13930</v>
+        <v>13048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29010</v>
+        <v>27646</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03163949374795584</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02235251642009761</v>
+        <v>0.02093705814081408</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04655070038043863</v>
+        <v>0.04436202925768445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -7157,19 +7157,19 @@
         <v>40526</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28941</v>
+        <v>29553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52624</v>
+        <v>53025</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03257622668987113</v>
+        <v>0.03257622668987112</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02326393017573039</v>
+        <v>0.02375553825137431</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04230138649546134</v>
+        <v>0.04262356531029671</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>600029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>588233</v>
+        <v>587281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608179</v>
+        <v>608089</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9664834858744059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9474833992636024</v>
+        <v>0.945949586574882</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9796111884741494</v>
+        <v>0.9794668424458859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>821</v>
@@ -7207,19 +7207,19 @@
         <v>603475</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>594183</v>
+        <v>595547</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>609263</v>
+        <v>610145</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9683605062520441</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9534492996195606</v>
+        <v>0.9556379707423156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9776474835799022</v>
+        <v>0.9790629418591856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1349</v>
@@ -7228,19 +7228,19 @@
         <v>1203503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1191405</v>
+        <v>1191004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1215088</v>
+        <v>1214476</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.967423773310129</v>
+        <v>0.9674237733101287</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9576986135045387</v>
+        <v>0.9573764346897033</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9767360698242696</v>
+        <v>0.9762444617486258</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>27580</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16600</v>
+        <v>18155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40030</v>
+        <v>39814</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03936526192128473</v>
+        <v>0.03936526192128472</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02369380890975727</v>
+        <v>0.02591251679209717</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05713548165090492</v>
+        <v>0.05682776493190172</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -7353,19 +7353,19 @@
         <v>22751</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15979</v>
+        <v>16144</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31359</v>
+        <v>31215</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03087400905134509</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02168495887072052</v>
+        <v>0.02190869739442082</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04255644729241106</v>
+        <v>0.04236112294760311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -7374,19 +7374,19 @@
         <v>50331</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38724</v>
+        <v>37702</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64748</v>
+        <v>65403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03501251537329252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02693808672693795</v>
+        <v>0.02622765835864612</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04504192862810678</v>
+        <v>0.04549756450641179</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>673037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>660587</v>
+        <v>660803</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>684017</v>
+        <v>682462</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9606347380787154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9428645183490952</v>
+        <v>0.943172235068099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9763061910902427</v>
+        <v>0.9740874832079034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1106</v>
@@ -7424,19 +7424,19 @@
         <v>714135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>705527</v>
+        <v>705671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>720907</v>
+        <v>720742</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.969125990948655</v>
+        <v>0.9691259909486548</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.957443552707589</v>
+        <v>0.957638877052397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9783150411292794</v>
+        <v>0.9780913026055792</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1746</v>
@@ -7445,19 +7445,19 @@
         <v>1387173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1372756</v>
+        <v>1372101</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1398780</v>
+        <v>1399802</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9649874846267074</v>
+        <v>0.9649874846267075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.954958071371893</v>
+        <v>0.9545024354935882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9730619132730614</v>
+        <v>0.9737723416413537</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>18752</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11834</v>
+        <v>12474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29105</v>
+        <v>27905</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03077410649634818</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0194212068768684</v>
+        <v>0.02047055725717411</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04776420966870584</v>
+        <v>0.04579434038705484</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -7570,19 +7570,19 @@
         <v>19304</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13418</v>
+        <v>13716</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26886</v>
+        <v>27406</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03174331889866062</v>
+        <v>0.03174331889866063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02206412138706685</v>
+        <v>0.02255394145869135</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04421087405642105</v>
+        <v>0.04506603452200929</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -7591,19 +7591,19 @@
         <v>38056</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28760</v>
+        <v>29415</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50101</v>
+        <v>50069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03125822956751194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02362257273567807</v>
+        <v>0.02416087175871227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04115144402314144</v>
+        <v>0.04112481781524018</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>590594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>580241</v>
+        <v>581441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>597512</v>
+        <v>596872</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9692258935036516</v>
+        <v>0.9692258935036517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9522357903312944</v>
+        <v>0.9542056596129453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9805787931231315</v>
+        <v>0.9795294427428257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>969</v>
@@ -7641,19 +7641,19 @@
         <v>588829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>581247</v>
+        <v>580727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>594715</v>
+        <v>594417</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9682566811013393</v>
+        <v>0.9682566811013396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.955789125943579</v>
+        <v>0.9549339654779906</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9779358786129331</v>
+        <v>0.9774460585413087</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1611</v>
@@ -7662,19 +7662,19 @@
         <v>1179423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1167378</v>
+        <v>1167410</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1188719</v>
+        <v>1188064</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9687417704324882</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9588485559768583</v>
+        <v>0.9588751821847599</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9763774272643216</v>
+        <v>0.9758391282412878</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>20065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13908</v>
+        <v>13793</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28087</v>
+        <v>28436</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04928982629760151</v>
+        <v>0.04928982629760152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03416537291275254</v>
+        <v>0.0338823212638635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06899540237071652</v>
+        <v>0.06985291560595211</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -7787,19 +7787,19 @@
         <v>17815</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12325</v>
+        <v>12970</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24894</v>
+        <v>24690</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04056471205160798</v>
+        <v>0.04056471205160797</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02806462965718709</v>
+        <v>0.02953297205526852</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0566847167577595</v>
+        <v>0.05622044394441928</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -7808,19 +7808,19 @@
         <v>37880</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29527</v>
+        <v>29336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48360</v>
+        <v>48345</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0447618574372939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03489177824523346</v>
+        <v>0.03466625914673081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05714671973767378</v>
+        <v>0.05712860706444983</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>387015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>378993</v>
+        <v>378644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>393172</v>
+        <v>393287</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9507101737023985</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9310045976292834</v>
+        <v>0.9301470843940475</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9658346270872473</v>
+        <v>0.9661176787361366</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>793</v>
@@ -7858,19 +7858,19 @@
         <v>421351</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>414272</v>
+        <v>414476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>426841</v>
+        <v>426196</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9594352879483922</v>
+        <v>0.9594352879483921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9433152832422403</v>
+        <v>0.9437795560555807</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9719353703428127</v>
+        <v>0.9704670279447316</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1335</v>
@@ -7879,19 +7879,19 @@
         <v>808366</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>797886</v>
+        <v>797901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>816719</v>
+        <v>816910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.955238142562706</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9428532802623263</v>
+        <v>0.9428713929355503</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9651082217547665</v>
+        <v>0.9653337408532692</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>11408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6827</v>
+        <v>7079</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18385</v>
+        <v>18624</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03677791251946805</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0220089342105505</v>
+        <v>0.02281990700798062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05926858265253584</v>
+        <v>0.06003845266744653</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -8004,19 +8004,19 @@
         <v>11270</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6805</v>
+        <v>7229</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17004</v>
+        <v>17872</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02425671003460793</v>
+        <v>0.02425671003460792</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01464643428269976</v>
+        <v>0.01555899698626092</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0365990424165178</v>
+        <v>0.03846589370020326</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -8025,19 +8025,19 @@
         <v>22678</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16137</v>
+        <v>16065</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31636</v>
+        <v>31897</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02926964207001962</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02082704051889289</v>
+        <v>0.02073449869237693</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04083060551375717</v>
+        <v>0.04116815811660921</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>298790</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>291813</v>
+        <v>291574</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>303371</v>
+        <v>303119</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9632220874805318</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9407314173474643</v>
+        <v>0.9399615473325538</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9779910657894495</v>
+        <v>0.9771800929920198</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>862</v>
@@ -8075,19 +8075,19 @@
         <v>453339</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>447605</v>
+        <v>446737</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>457804</v>
+        <v>457380</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9757432899653921</v>
+        <v>0.9757432899653919</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9634009575834819</v>
+        <v>0.9615341062997963</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9853535657173002</v>
+        <v>0.984441003013739</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1302</v>
@@ -8096,19 +8096,19 @@
         <v>752129</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>743171</v>
+        <v>742910</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>758670</v>
+        <v>758742</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9707303579299805</v>
+        <v>0.9707303579299802</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9591693944862427</v>
+        <v>0.9588318418833908</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9791729594811072</v>
+        <v>0.9792655013076234</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>129651</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03669970105723599</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>156</v>
@@ -8221,19 +8221,19 @@
         <v>103320</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0276614500664914</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>281</v>
@@ -8242,19 +8242,19 @@
         <v>232971</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03205472307522696</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3403111</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3375742</v>
+        <v>3377047</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3426502</v>
+        <v>3424440</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.963300298942764</v>
+        <v>0.9633002989427641</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9555532584693236</v>
+        <v>0.9559225669879595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.96992144107712</v>
+        <v>0.9693377904353807</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5209</v>
@@ -8292,19 +8292,19 @@
         <v>3631846</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3615260</v>
+        <v>3613742</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3647603</v>
+        <v>3647259</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9723385499335085</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9678980611957907</v>
+        <v>0.967491555148759</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9765571740310343</v>
+        <v>0.976465044783837</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8460</v>
@@ -8313,19 +8313,19 @@
         <v>7034957</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7000016</v>
+        <v>7001671</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7063475</v>
+        <v>7062999</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9679452769247731</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9631378152983926</v>
+        <v>0.9633655141936649</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9718690853976257</v>
+        <v>0.9718036776954805</v>
       </c>
     </row>
     <row r="27">
